--- a/Outputs/1. Budget/Output Files/1250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260799.652011603</v>
+        <v>2260053.935530041</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9963012.959981356</v>
+        <v>9963012.959981354</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>102.5980685144042</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>297.8221899746236</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>43.31785343913925</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>232.3604212505265</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.3391761357039</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>137.5811550255018</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.99537910748692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.85099796338667</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231285</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>132.3362019672935</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.31590541686237</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.89392690056386</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="U13" t="n">
-        <v>174.3062600431768</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.58954455628727</v>
+        <v>75.41574790503751</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>146.2787299119459</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>101.5709747965855</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>50.33469509885661</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>175.0698676614148</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>27.82744888912041</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>34.71361063512823</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>14.73664328357096</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>85.1622926248739</v>
       </c>
       <c r="W34" t="n">
-        <v>263.3452520788649</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1796758467</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>117.150168488197</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>82.76001926167731</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>70.39718844471214</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>575.54120256299</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>157.5773944611768</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>157.5773944611768</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2122.655239596916</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1732.515907621104</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>2066.718496146435</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>249.7161456655658</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>249.7161456655658</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>249.7161456655658</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.7161456655658</v>
+        <v>2248.366960976675</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1765.917509578903</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1407.651810972152</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1021.863558373908</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>610.8776535843006</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>192.9138454824874</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>192.9138454824874</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>2134.880026519314</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>93.1864141066136</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730.9133108563935</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C8" t="n">
-        <v>361.9507939159818</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D8" t="n">
-        <v>361.9507939159818</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E8" t="n">
-        <v>361.9507939159818</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F8" t="n">
-        <v>355.0052931667784</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>341.0818891053693</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157407</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1507.652482896327</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>1117.513150920515</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.1154545468207</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>88.17927161891382</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>88.17927161891382</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E10" t="n">
-        <v>88.17927161891382</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F10" t="n">
-        <v>88.17927161891382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>88.17927161891382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>88.17927161891382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>88.17927161891382</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1154545468207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>257.1154545468207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>257.1154545468207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>257.1154545468207</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>257.1154545468207</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>154.3878371814097</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834695</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>550.2226492899335</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.048458376741</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2410.070939158951</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U13" t="n">
-        <v>1322.84934122136</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V13" t="n">
-        <v>1322.84934122136</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W13" t="n">
-        <v>1322.84934122136</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.84934122136</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5360,16 +5360,16 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>806.1650729342614</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M15" t="n">
-        <v>1113.485206214223</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
-        <v>1443.347833878256</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
         <v>2112.811595180915</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>743.3431626812556</v>
+        <v>638.8778922268339</v>
       </c>
       <c r="C16" t="n">
-        <v>574.4069797533488</v>
+        <v>638.8778922268339</v>
       </c>
       <c r="D16" t="n">
         <v>562.7003690904323</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="X16" t="n">
-        <v>964.1357418247858</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.3431626812556</v>
+        <v>820.5263570570736</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5509,25 +5509,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,19 +5594,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1800.678268171039</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>943.2631727657034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>774.3269898377965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>774.3269898377965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>626.4138962554034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>479.523948757493</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>311.3486270773136</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.055751909234</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>943.2631727657034</v>
+        <v>244.9733843006353</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5746,16 +5746,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,34 +5764,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590536</v>
@@ -5828,25 +5828,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851558</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.687808515591</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1943.227873734288</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.6898113736385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C22" t="n">
-        <v>872.6898113736385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D22" t="n">
-        <v>722.5731719613027</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>574.6600783789096</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>427.7701308809992</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>259.5948092008198</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>498.168852875299</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.130855347408</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="X22" t="n">
-        <v>1275.130855347408</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y22" t="n">
-        <v>1054.338276203878</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -6001,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6016,25 +6016,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6071,25 +6071,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582217</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>738.7219969042602</v>
+        <v>896.5552164996849</v>
       </c>
       <c r="C25" t="n">
-        <v>738.7219969042602</v>
+        <v>727.619033571778</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728254</v>
+        <v>577.5023941594422</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904323</v>
+        <v>429.5893005770491</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>282.6993530791387</v>
       </c>
       <c r="G25" t="n">
         <v>247.6350999123426</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W25" t="n">
-        <v>920.3704617344999</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X25" t="n">
-        <v>920.3704617344999</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y25" t="n">
-        <v>920.3704617344999</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="26">
@@ -6226,7 +6226,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6320,10 +6320,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2227.840212610278</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2432.862693392488</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3525.606699852205</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3832.926833132166</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>4162.789460796199</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4442.329526014896</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4647.352006797106</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3926.121309839311</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4845.969074748059</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4556.551904711098</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4328.562353813081</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>4107.769774669551</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2771.824048372322</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556162</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774859</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>265.3924131404652</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>1412.893752754999</v>
       </c>
       <c r="W34" t="n">
-        <v>265.3924131404652</v>
+        <v>1123.476582718039</v>
       </c>
       <c r="X34" t="n">
-        <v>265.3924131404652</v>
+        <v>895.4870318200215</v>
       </c>
       <c r="Y34" t="n">
-        <v>265.3924131404652</v>
+        <v>674.6944526764913</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3400.776574865201</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3708.096708145163</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>4037.959335809195</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4317.499401027892</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1313.886294955175</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1090.100879744681</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3796.266898524763</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.725934227851</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4317.041446021964</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>4198.707942498533</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4198.707942498533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3977.915363355003</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4595.498205900218</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>349.7492534403921</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>180.8130705124852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7608,13 +7608,13 @@
         <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>531.3977182706318</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3977.688260435253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>3977.688260435253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>3827.571621022917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3827.571621022917</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3680.681673525007</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>4749.779469576118</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>4495.094981370231</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>4205.67781133327</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>3977.688260435253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>3977.688260435253</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>15.83804904622848</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9008,10 +9008,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>148.2747143566559</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,19 +9245,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>253.737160350474</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>182.034074286795</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6742649934481</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.6241510367949</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>127.6461250100638</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504729</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>57.18000134477742</v>
       </c>
       <c r="U13" t="n">
-        <v>111.9310923554006</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>137.0259284619251</v>
+        <v>73.19972511317485</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>33.55325026999137</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>47.34285357095064</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>98.57913326867951</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>77.06777566241323</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>120.788024129092</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>131.7799578282494</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>140.2723743590792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24888,16 +24888,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>237.401000040257</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>166.9753506989541</v>
       </c>
       <c r="W34" t="n">
-        <v>23.17774625772614</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>14.74113413690324</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>169.372829848394</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>65.85545375653504</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>96.09638001866544</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049989</v>
+        <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
         <v>547440.6836327923</v>
       </c>
       <c r="F2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327919</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327924</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.6836327922</v>
-      </c>
       <c r="P2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327919</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="C4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453288</v>
       </c>
       <c r="D4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="E4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="F4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="G4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="H4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253059</v>
       </c>
       <c r="I4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="K4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="L4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="M4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="N4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="O4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="P4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
     </row>
     <row r="5">
@@ -26475,31 +26475,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269105.9549561354</v>
+        <v>-268243.0366182836</v>
       </c>
       <c r="C6" t="n">
-        <v>320861.9242584091</v>
+        <v>321724.8425962607</v>
       </c>
       <c r="D6" t="n">
-        <v>320861.9242584088</v>
+        <v>321724.8425962606</v>
       </c>
       <c r="E6" t="n">
-        <v>-96207.43924227741</v>
+        <v>-96487.54482507284</v>
       </c>
       <c r="F6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.491651823</v>
       </c>
       <c r="G6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.491651823</v>
       </c>
       <c r="H6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="I6" t="n">
-        <v>428952.5972346182</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="J6" t="n">
-        <v>252529.3780420255</v>
+        <v>252249.2724592302</v>
       </c>
       <c r="K6" t="n">
-        <v>428952.5972346187</v>
+        <v>428672.491651823</v>
       </c>
       <c r="L6" t="n">
-        <v>428952.5972346184</v>
+        <v>428672.491651823</v>
       </c>
       <c r="M6" t="n">
-        <v>294151.5820007811</v>
+        <v>293871.476417986</v>
       </c>
       <c r="N6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="O6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.491651823</v>
       </c>
       <c r="P6" t="n">
-        <v>428952.5972346186</v>
+        <v>428672.4916518229</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>49.333247730457</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>71.90891070384544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594886</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>19.77722207330154</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3946655277767</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>14.35016121935948</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>144.2514419911409</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>117.3198908784085</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>44.47535211858298</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>191.5865707970636</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>11.30603228797314</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>57.74822800113516</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>397.5324193126801</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>536.1008625915821</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>389.1274892183196</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36378,10 +36378,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>374.2497035813873</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
         <v>59.82538970349808</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>192.637183821869</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>215.6591577951379</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819975</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1250000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1250000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260053.935530041</v>
+        <v>2264993.198379073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>295.9408816142887</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>102.5980685144042</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>43.31785343913925</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.275596830496657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>289.8177098088489</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>137.5811550255018</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>38.85099796338667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231285</v>
+        <v>307.9222910483176</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>25.31590541686237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.60408762095446</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.32125122170412</v>
       </c>
       <c r="T13" t="n">
-        <v>164.3675597136118</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>75.41574790503751</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.2787299119459</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2140,13 +2140,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.68373630341851</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>175.0698676614148</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>110.1949644673082</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.71361063512823</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>15.80980293781977</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>85.1622926248739</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>164.3675597136119</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>186.1320113446855</v>
       </c>
       <c r="W40" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452451</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="C2" t="n">
-        <v>940.7524019189439</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="D2" t="n">
-        <v>582.4867033121934</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="E2" t="n">
-        <v>582.4867033121934</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>575.54120256299</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>157.5773944611768</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>157.5773944611768</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4436,25 +4436,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2066.718496146435</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="X4" t="n">
-        <v>2469.159540120205</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y4" t="n">
-        <v>2248.366960976675</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2134.880026519314</v>
+        <v>1979.48636361053</v>
       </c>
       <c r="C5" t="n">
-        <v>1765.917509578903</v>
+        <v>1610.523846670119</v>
       </c>
       <c r="D5" t="n">
-        <v>1407.651810972152</v>
+        <v>1252.258148063368</v>
       </c>
       <c r="E5" t="n">
-        <v>1021.863558373908</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>610.8776535843006</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>192.9138454824874</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>192.9138454824874</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519314</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519314</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>2134.880026519314</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>262.1862143682812</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>93.1864141066136</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D8" t="n">
-        <v>819.7159451700466</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718023</v>
+        <v>378.8990031022964</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.54400078133</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>529.7758821321496</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359519</v>
+        <v>379.6592427198138</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355875</v>
+        <v>231.7461491374207</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>84.85620163951037</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,19 +5120,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>154.3878371814097</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>303.4575213834695</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>550.2226492899335</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698952</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.395458814976</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.888432463345</v>
+        <v>1375.395458814976</v>
       </c>
       <c r="U13" t="n">
-        <v>1043.759793676903</v>
+        <v>1375.395458814976</v>
       </c>
       <c r="V13" t="n">
-        <v>789.0753054710162</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="W13" t="n">
-        <v>499.6581354340557</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X13" t="n">
-        <v>499.6581354340557</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y13" t="n">
-        <v>278.8655562905255</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.8778922268339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8778922268339</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>820.5263570570736</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>820.5263570570736</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5506,40 +5506,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>465.7659634441654</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>465.7659634441654</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.9733843006353</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5791,13 +5791,13 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5837,22 +5837,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.7516828383384</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="C22" t="n">
-        <v>208.7516828383384</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="D22" t="n">
-        <v>208.7516828383384</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
         <v>208.7516828383384</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>675.0071030383442</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V22" t="n">
-        <v>498.168852875299</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W22" t="n">
-        <v>208.7516828383384</v>
+        <v>674.7185717878251</v>
       </c>
       <c r="X22" t="n">
-        <v>208.7516828383384</v>
+        <v>446.7290208898078</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.7516828383384</v>
+        <v>446.7290208898078</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6086,10 +6086,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>896.5552164996849</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="C25" t="n">
-        <v>727.619033571778</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="D25" t="n">
-        <v>577.5023941594422</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>429.5893005770491</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>282.6993530791387</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>1298.996260473455</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X25" t="n">
-        <v>1298.996260473455</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y25" t="n">
-        <v>1078.203681329925</v>
+        <v>503.3281774570622</v>
       </c>
     </row>
     <row r="26">
@@ -6223,37 +6223,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109413</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>804.0893717830344</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706986</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>973.0255547109413</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,28 +6639,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6715,13 +6715,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.893752754999</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.476582718039</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>895.4870318200215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>674.6944526764913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7189,37 +7189,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706318</v>
+        <v>1021.775499100062</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>732.358329063101</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>732.358329063101</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.384017443268</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153611</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735078</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,13 +7660,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050815</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>15.83804904622848</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,13 +8777,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>185.5995587618991</v>
       </c>
       <c r="T13" t="n">
-        <v>57.18000134477742</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>73.19972511317485</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.55325026999137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.75022634315066</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>77.06777566241323</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>38.42050855090419</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>131.7799578282494</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>209.8998524512174</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>166.9753506989541</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>61.34209567542521</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>66.00563197914249</v>
       </c>
       <c r="W40" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388531</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049989</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049988</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.238904999</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049989</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327923</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="H2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="J2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="K2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="L2" t="n">
-        <v>547440.683632792</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="M2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327917</v>
       </c>
       <c r="N2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327926</v>
       </c>
       <c r="O2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327921</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>170145.3182453288</v>
+      </c>
+      <c r="C4" t="n">
         <v>170145.3182453287</v>
-      </c>
-      <c r="C4" t="n">
-        <v>170145.3182453288</v>
       </c>
       <c r="D4" t="n">
         <v>170145.3182453287</v>
@@ -26432,34 +26432,34 @@
         <v>25806.27477253063</v>
       </c>
       <c r="G4" t="n">
+        <v>25806.27477253064</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25806.27477253065</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25806.27477253064</v>
+      </c>
+      <c r="J4" t="n">
         <v>25806.27477253063</v>
       </c>
-      <c r="H4" t="n">
-        <v>25806.27477253059</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25806.27477253063</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25806.27477253064</v>
-      </c>
       <c r="K4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="L4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="M4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="N4" t="n">
         <v>25806.27477253063</v>
       </c>
       <c r="O4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="P4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253064</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268243.0366182836</v>
+        <v>-268243.0366182838</v>
       </c>
       <c r="C6" t="n">
-        <v>321724.8425962607</v>
+        <v>321724.8425962605</v>
       </c>
       <c r="D6" t="n">
-        <v>321724.8425962606</v>
+        <v>321724.8425962608</v>
       </c>
       <c r="E6" t="n">
-        <v>-96487.54482507284</v>
+        <v>-95610.41269132313</v>
       </c>
       <c r="F6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="G6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="H6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855728</v>
       </c>
       <c r="I6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="J6" t="n">
-        <v>252249.2724592302</v>
+        <v>253126.4045929794</v>
       </c>
       <c r="K6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855723</v>
       </c>
       <c r="L6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855723</v>
       </c>
       <c r="M6" t="n">
-        <v>293871.476417986</v>
+        <v>294748.6085517352</v>
       </c>
       <c r="N6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855731</v>
       </c>
       <c r="O6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="P6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855729</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>85.9894884579731</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49.333247730457</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>123.9289676594886</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>92.11266026341286</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>14.35016121935948</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>117.3198908784085</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0.612419542770656</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858298</v>
+        <v>98.95375469339388</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>14.59587156758252</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>57.74822800113516</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
